--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2018092.291438582</v>
+        <v>2015715.664491217</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9938345.326868374</v>
+        <v>9938345.326868372</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>72.94942429078201</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>403.0603599216211</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>146.2200463431393</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>189.580115237853</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>328.4528833267051</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>19.08535881736773</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -947,22 +947,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1105,16 +1105,16 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>76.25086600925697</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>176.1146791460087</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>267.4083398772225</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>170.7985267442896</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>50.98074812542791</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>145.8284992587528</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>117.8112368377022</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701338</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>77.73359659137228</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703285</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>126.9263824507376</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2087,13 +2087,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673005</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>181.9855643707985</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>71.79687029691033</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>239.4844875583155</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>220.6346102953135</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,19 +3424,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>124.9362388746445</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>65.44930784064577</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>176.2740711281116</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4192,13 +4192,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>162.3413016667496</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1238.326884986529</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>869.3643680461169</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>869.3643680461169</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>869.3643680461169</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>458.3784632565093</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.92672505065</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1624.92672505065</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>1624.92672505065</v>
+        <v>918.0161179218651</v>
       </c>
     </row>
     <row r="3">
@@ -4416,16 +4416,16 @@
         <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>957.2304598751772</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1344.515588472122</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>1676.586023648284</v>
+        <v>1977.748514897737</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>349.0604424885604</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>349.0604424885604</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>198.9438030762247</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>198.9438030762247</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>198.9438030762247</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
@@ -4513,25 +4513,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U4" t="n">
-        <v>1533.862713590079</v>
+        <v>1048.115628253778</v>
       </c>
       <c r="V4" t="n">
-        <v>1279.178225384192</v>
+        <v>1048.115628253778</v>
       </c>
       <c r="W4" t="n">
-        <v>1087.683159487371</v>
+        <v>758.6984582168175</v>
       </c>
       <c r="X4" t="n">
-        <v>1087.683159487371</v>
+        <v>530.7089073188001</v>
       </c>
       <c r="Y4" t="n">
-        <v>1087.683159487371</v>
+        <v>530.7089073188001</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1660.900948886692</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="C5" t="n">
-        <v>1291.93843194628</v>
+        <v>1176.100419978353</v>
       </c>
       <c r="D5" t="n">
-        <v>933.6727333395299</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E5" t="n">
-        <v>547.8844807412856</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>136.8985759516781</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362826</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816093</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872929</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.25058172385</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926626</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W5" t="n">
-        <v>2437.640120926626</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="X5" t="n">
-        <v>2437.640120926626</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="Y5" t="n">
-        <v>2047.500788950814</v>
+        <v>1545.062936918765</v>
       </c>
     </row>
     <row r="6">
@@ -4638,31 +4638,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>168.0008189145199</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>932.4978103100997</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2015.115393042426</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2262.298126874723</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4753,13 +4753,13 @@
         <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1260.212888972913</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>971.0945514767509</v>
+        <v>936.3618696456771</v>
       </c>
       <c r="V7" t="n">
-        <v>971.0945514767509</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="W7" t="n">
         <v>681.6773814397902</v>
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1378.810406950777</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="C8" t="n">
-        <v>1378.810406950777</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="D8" t="n">
-        <v>1020.544708344026</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E8" t="n">
-        <v>634.756455745782</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>223.7705509561744</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.012626270159</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V8" t="n">
-        <v>1768.949738926588</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W8" t="n">
-        <v>1768.949738926588</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X8" t="n">
-        <v>1768.949738926588</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="Y8" t="n">
-        <v>1378.810406950777</v>
+        <v>1500.22751757712</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>129.0834785909174</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>575.6256845144202</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>870.3292415458918</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1233.591260505112</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657491</v>
+        <v>621.6669618009208</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378422</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255065</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431134</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F10" t="n">
-        <v>102.742491745203</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1386.561199187299</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1131.876710981412</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037536</v>
+        <v>842.459540944451</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>842.459540944451</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959889</v>
+        <v>621.6669618009208</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5030,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,22 +5051,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211831</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="14">
@@ -5264,52 +5264,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.793114229131</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.853600740073</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121661</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121661</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121661</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121661</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782971</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038358</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797761</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.28419561186</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138429</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703128</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5528,37 +5528,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>2283.159972732779</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797698</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5771,31 +5771,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5914,46 +5914,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797731</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>960.4603932171079</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="23">
@@ -5966,28 +5966,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192507</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6008,28 +6008,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6212,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>727.9786782557277</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C28" t="n">
-        <v>559.0424953278208</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D28" t="n">
-        <v>408.925855915485</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1902.510931370362</v>
+        <v>1735.557557724331</v>
       </c>
       <c r="V28" t="n">
-        <v>1647.826443164475</v>
+        <v>1480.873069518444</v>
       </c>
       <c r="W28" t="n">
-        <v>1358.409273127515</v>
+        <v>1191.455899481483</v>
       </c>
       <c r="X28" t="n">
-        <v>1130.419722229497</v>
+        <v>963.4663485834661</v>
       </c>
       <c r="Y28" t="n">
-        <v>909.6271430859674</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6452,16 +6452,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6488,25 +6488,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>411.1294017454277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>261.0127623330919</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832229</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C37" t="n">
-        <v>634.927936255316</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578602</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2380.852671620012</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.997837274916</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1978.396372297858</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1206.305163156993</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>985.5125840134626</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7172,7 +7172,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7312,19 +7312,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7494,22 +7494,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F43" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>966.2295783107356</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7840,16 +7840,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
   </sheetData>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9556134883072787</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039159</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>224.3355197601776</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>20.93778120154991</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>54.95314511566525</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>186.5911984019045</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154991</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>15.64270034434959</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154991</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>49.43558426092564</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>70.88187642684008</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194039</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>40.32043864789027</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194368</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>43.72409101823868</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>145.6085800303779</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>46.69998683092865</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>65.54986409393067</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,19 +25312,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>40.58789941762437</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.9259388694759139</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>65.54986409393069</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>49.43558426092559</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26029,7 +26029,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26080,13 +26080,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>854213.313289642</v>
+        <v>854213.3132896419</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>854213.313289642</v>
+        <v>854213.3132896418</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>854213.313289642</v>
+        <v>854213.3132896418</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>854213.3132896419</v>
+        <v>854213.313289642</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>854213.3132896419</v>
+        <v>854213.313289642</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>854213.3132896421</v>
+        <v>854213.313289642</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>854213.313289642</v>
+        <v>854213.3132896419</v>
       </c>
     </row>
     <row r="16">
@@ -26314,43 +26314,43 @@
         <v>574729.2389049986</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049981</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="F2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="G2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="I2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="J2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="K2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="L2" t="n">
         <v>565002.6197830047</v>
-      </c>
-      <c r="G2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="H2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="J2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="L2" t="n">
-        <v>565002.6197830044</v>
       </c>
       <c r="M2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="N2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="O2" t="n">
         <v>565002.6197830046</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830045</v>
       </c>
       <c r="P2" t="n">
         <v>565002.6197830045</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="D4" t="n">
         <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.36846171962</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171972</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719678</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
@@ -26442,19 +26442,19 @@
         <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719708</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
+        <v>7507.36846171968</v>
+      </c>
+      <c r="M4" t="n">
         <v>7507.368461719667</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7507.368461719636</v>
       </c>
       <c r="N4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719676</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26522,46 +26522,46 @@
         <v>-766074.1806575098</v>
       </c>
       <c r="C6" t="n">
-        <v>348677.6029184093</v>
+        <v>348677.6029184094</v>
       </c>
       <c r="D6" t="n">
-        <v>348677.602918409</v>
+        <v>348677.6029184089</v>
       </c>
       <c r="E6" t="n">
-        <v>-51112.72012716854</v>
+        <v>-51147.4580526038</v>
       </c>
       <c r="F6" t="n">
-        <v>456372.7214973779</v>
+        <v>456337.983571942</v>
       </c>
       <c r="G6" t="n">
-        <v>456372.7214973777</v>
+        <v>456337.9835719421</v>
       </c>
       <c r="H6" t="n">
-        <v>456372.7214973777</v>
+        <v>456337.983571942</v>
       </c>
       <c r="I6" t="n">
-        <v>456372.7214973777</v>
+        <v>456337.9835719418</v>
       </c>
       <c r="J6" t="n">
-        <v>288767.5436873949</v>
+        <v>288732.8057619594</v>
       </c>
       <c r="K6" t="n">
-        <v>456372.7214973776</v>
+        <v>456337.9835719421</v>
       </c>
       <c r="L6" t="n">
-        <v>456372.7214973776</v>
+        <v>456337.9835719422</v>
       </c>
       <c r="M6" t="n">
-        <v>323765.4277684508</v>
+        <v>323730.6898430152</v>
       </c>
       <c r="N6" t="n">
-        <v>456372.7214973778</v>
+        <v>456337.983571942</v>
       </c>
       <c r="O6" t="n">
-        <v>456372.7214973777</v>
+        <v>456337.9835719421</v>
       </c>
       <c r="P6" t="n">
-        <v>456372.7214973777</v>
+        <v>456337.983571942</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26790,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>309.7844173726986</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>8.487342851332926</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>20.08655370166485</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,22 +27585,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>96.94288309873804</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>26.23015829397781</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>392.4623439555862</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27825,16 +27825,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>144.497829987955</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>110.1124749751919</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>97.86455189378506</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>240.7491760286644</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>115.3258519193763</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28065,16 +28065,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>140.3986548624478</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.139538119038411e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28506,7 +28506,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28807,13 +28807,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28989,7 +28989,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>266.392684868584</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32084,31 +32084,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>750.6021172789107</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
@@ -32555,7 +32555,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32959,7 +32959,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
         <v>790.8204499236507</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33746,16 +33746,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>510.8679233250724</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>303.7670002884146</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34214,25 +34214,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
@@ -34451,25 +34451,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34784,19 +34784,19 @@
         <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>367.8869457703477</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>474.0150488837098</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>117.9333660065826</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820404</v>
@@ -35033,7 +35033,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>303.0719207327591</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>78.62292123526699</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35261,7 +35261,7 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
@@ -35270,7 +35270,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>128.551245894225</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295474</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>619.2604051955774</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191267</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36282,10 +36282,10 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191301</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010404</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37394,16 +37394,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>163.785226202393</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>285.360777932</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
